--- a/FileGunBasin/9 August-04 StormBasin/155 rdac outlook file - august 8/155 rdac outlook file - august 8 - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/155 rdac outlook file - august 8/155 rdac outlook file - august 8 - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/155 rdac outlook file - august 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C181DA-C796-4E40-BD02-EA9B929561A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FDA371-09D5-4C42-BE8F-449D5E24170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19340" xr2:uid="{B0A10E24-0577-944E-9C6F-37A2023CAFB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>panzer system</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>existing xagio account</t>
+  </si>
+  <si>
+    <t>731 East Broad Street, Columbus, OH 43205</t>
+  </si>
+  <si>
+    <t>731 East Broad Street</t>
+  </si>
+  <si>
+    <t>Jerry Benson</t>
+  </si>
+  <si>
+    <t>fisherman23@kozomail.com</t>
+  </si>
+  <si>
+    <t>Jakarlo45$</t>
   </si>
 </sst>
 </file>
@@ -104,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +144,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -142,12 +163,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB44355C-7455-6440-9444-A686AE7FE531}">
-  <dimension ref="E1:E65"/>
+  <dimension ref="E1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,41 +554,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="3" t="s">
+    <row r="23" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="2" t="s">
+    <row r="42" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="1" t="s">
+    <row r="58" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E48" t="s">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E50" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E62" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E65" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="4" t="s">
         <v>6</v>
       </c>
     </row>
